--- a/Efdp/efdp-api/Documents/TestsInterpolation.xlsx
+++ b/Efdp/efdp-api/Documents/TestsInterpolation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\Efdp\efdp-api\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8F53E3-5276-45F5-A7F8-E553594839E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EBF3F5-4BEC-4805-83E8-469BA04E3DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-54135" yWindow="8415" windowWidth="25470" windowHeight="15420" xr2:uid="{1143B2C4-3B85-4C00-B718-98CD65A68787}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15870" xr2:uid="{1143B2C4-3B85-4C00-B718-98CD65A68787}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>Symbol</t>
   </si>
@@ -734,7 +734,696 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NVDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$P$18</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44591</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44955</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45319</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$P$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="1">
+                  <c:v>14971000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16283333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17595666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18908000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18017000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17126000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16235000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14213666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12192333334</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10171000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16719666666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23268333333</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29817000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D71-4EA6-9C36-2499FB42E968}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MSFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$P$18</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44591</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44955</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45319</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$P$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="2">
+                  <c:v>34566000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42062333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49558666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57055000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66130333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75205666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>84281000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95803333333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>107325666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>118848000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>136946666666</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>155045333333</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>173144000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4D71-4EA6-9C36-2499FB42E968}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GOOG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$P$18</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>43830</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43856</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44377</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44561</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44591</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44926</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44955</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45107</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45291</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45319</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$P$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>152122000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>155881666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>159641333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>163401000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>172762000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>182123000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>191484000000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>192843666666</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>194203333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>195563000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200791000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>206019000000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>211247000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4D71-4EA6-9C36-2499FB42E968}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="990264096"/>
+        <c:axId val="990265536"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="990264096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="990265536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="990265536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="LID4096"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="990264096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="LID4096"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="LID4096"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1277,20 +1966,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1310,6 +2515,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>138111</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9339DFB1-7940-FF6F-DF4B-628461CFC5E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1635,10 +2876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F7FBE77-4654-4BA0-848A-3EB4E742A60F}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1797,6 +3038,188 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>43830</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43856</v>
+      </c>
+      <c r="D18" s="1">
+        <v>44012</v>
+      </c>
+      <c r="E18" s="1">
+        <v>44196</v>
+      </c>
+      <c r="F18" s="1">
+        <v>44227</v>
+      </c>
+      <c r="G18" s="1">
+        <v>44377</v>
+      </c>
+      <c r="H18" s="1">
+        <v>44561</v>
+      </c>
+      <c r="I18" s="1">
+        <v>44591</v>
+      </c>
+      <c r="J18" s="1">
+        <v>44742</v>
+      </c>
+      <c r="K18" s="1">
+        <v>44926</v>
+      </c>
+      <c r="L18" s="1">
+        <v>44955</v>
+      </c>
+      <c r="M18" s="1">
+        <v>45107</v>
+      </c>
+      <c r="N18" s="1">
+        <v>45291</v>
+      </c>
+      <c r="O18" s="1">
+        <v>45319</v>
+      </c>
+      <c r="P18" s="1">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>14971000000</v>
+      </c>
+      <c r="D19">
+        <v>16283333333</v>
+      </c>
+      <c r="E19">
+        <v>17595666666</v>
+      </c>
+      <c r="F19">
+        <v>18908000000</v>
+      </c>
+      <c r="G19">
+        <v>18017000000</v>
+      </c>
+      <c r="H19">
+        <v>17126000000</v>
+      </c>
+      <c r="I19">
+        <v>16235000000</v>
+      </c>
+      <c r="J19">
+        <v>14213666667</v>
+      </c>
+      <c r="K19">
+        <v>12192333334</v>
+      </c>
+      <c r="L19">
+        <v>10171000000</v>
+      </c>
+      <c r="M19">
+        <v>16719666666</v>
+      </c>
+      <c r="N19">
+        <v>23268333333</v>
+      </c>
+      <c r="O19">
+        <v>29817000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>34566000000</v>
+      </c>
+      <c r="E20">
+        <v>42062333333</v>
+      </c>
+      <c r="F20">
+        <v>49558666666</v>
+      </c>
+      <c r="G20">
+        <v>57055000000</v>
+      </c>
+      <c r="H20">
+        <v>66130333333</v>
+      </c>
+      <c r="I20">
+        <v>75205666666</v>
+      </c>
+      <c r="J20">
+        <v>84281000000</v>
+      </c>
+      <c r="K20">
+        <v>95803333333</v>
+      </c>
+      <c r="L20">
+        <v>107325666666</v>
+      </c>
+      <c r="M20">
+        <v>118848000000</v>
+      </c>
+      <c r="N20">
+        <v>136946666666</v>
+      </c>
+      <c r="O20">
+        <v>155045333333</v>
+      </c>
+      <c r="P20">
+        <v>173144000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>152122000000</v>
+      </c>
+      <c r="C21">
+        <v>155881666666</v>
+      </c>
+      <c r="D21">
+        <v>159641333333</v>
+      </c>
+      <c r="E21">
+        <v>163401000000</v>
+      </c>
+      <c r="F21">
+        <v>172762000000</v>
+      </c>
+      <c r="G21">
+        <v>182123000000</v>
+      </c>
+      <c r="H21">
+        <v>191484000000</v>
+      </c>
+      <c r="I21">
+        <v>192843666666</v>
+      </c>
+      <c r="J21">
+        <v>194203333333</v>
+      </c>
+      <c r="K21">
+        <v>195563000000</v>
+      </c>
+      <c r="L21">
+        <v>200791000000</v>
+      </c>
+      <c r="M21">
+        <v>206019000000</v>
+      </c>
+      <c r="N21">
+        <v>211247000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Efdp/efdp-api/Documents/TestsInterpolation.xlsx
+++ b/Efdp/efdp-api/Documents/TestsInterpolation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\r\Rollover\Efdp\efdp-api\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EBF3F5-4BEC-4805-83E8-469BA04E3DEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497119D9-AF28-4D07-92EA-38F2BED456E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15870" xr2:uid="{1143B2C4-3B85-4C00-B718-98CD65A68787}"/>
   </bookViews>
